--- a/biology/Botanique/Boletus_chippewaensis/Boletus_chippewaensis.xlsx
+++ b/biology/Botanique/Boletus_chippewaensis/Boletus_chippewaensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus chippewaensis, de son nom vernaculaire en français Bolet du Chippewa et plus généralement Cèpe d'Amérique est un champignon basidiomycètes comestible de la région du Michigan. C'est un cèpe du genre Boletus de la famille des Boletaceae, Classé dans le groupe de Boletus edulis, une analyse phylogénétique récente a précisé qu'il s'agit d'une espèce différente de Boletus edulis et pas d'une variété, mais classée dans le clade de Boletus edulis sensu stricto.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binominal
-Boletus chippewaensis (A.H. Smith &amp; Thiers 1973)[1]
+          <t>Nom binominal</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus chippewaensis (A.H. Smith &amp; Thiers 1973)
 </t>
         </is>
       </c>
@@ -543,7 +560,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore : 6-20 cm de diam., convexe à largement convexe puis subétalé, parfois légèrement alvéolé à marge unie. Morphologiquement semblable au Boletus edulis européen.
 Cuticule : viscidule, glabre, lisse, brun jaunâtre à brun ocré ou jaune taché de rouille vers le centre.
@@ -580,7 +599,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Solitaire ou dispersé; il se rencontre sur sol sous les feuillus du genre Quercus et Fagus régionaux.
 </t>
@@ -611,7 +632,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeune, la confusion est possible avec Boletus aurantioruber, dont la cuticule est typiquement rouge-orangée et le pied nettement plus réticulé.
 </t>
@@ -642,7 +665,9 @@
           <t>Saison</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">fin-juin à mi-octobre
 </t>
@@ -673,7 +698,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellent comestible
 </t>
